--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxrice/PycharmProjects/cs151-pa1-maxxrice0817/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C9C2E-9D34-AE49-BC69-0F2DA4EB07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="100" yWindow="1440" windowWidth="34200" windowHeight="20000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>You need to create your own tests</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">Nmae </t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>miles traveled</t>
+  </si>
+  <si>
+    <t>buying artifact</t>
+  </si>
+  <si>
+    <t>money on them</t>
+  </si>
+  <si>
+    <t>poster bought</t>
+  </si>
+  <si>
+    <t>Reward for flyers</t>
+  </si>
+  <si>
+    <t>outputs</t>
   </si>
 </sst>
 </file>
@@ -95,9 +116,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +156,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +262,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,26 +412,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxrice/PycharmProjects/cs151-pa1-maxxrice0817/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C9C2E-9D34-AE49-BC69-0F2DA4EB07BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0254D2B-91D0-8F4F-91A6-F3242A106357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1440" windowWidth="34200" windowHeight="20000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="0" yWindow="1480" windowWidth="34200" windowHeight="19280" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">Nmae </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>inputs</t>
   </si>
@@ -48,16 +45,103 @@
     <t>buying artifact</t>
   </si>
   <si>
-    <t>money on them</t>
-  </si>
-  <si>
-    <t>poster bought</t>
-  </si>
-  <si>
     <t>Reward for flyers</t>
   </si>
   <si>
     <t>outputs</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>How game ended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>You went home empty handed</t>
+  </si>
+  <si>
+    <t>That is a little far for a walk, why don’t you go somwhere closer</t>
+  </si>
+  <si>
+    <t>you went home broke</t>
+  </si>
+  <si>
+    <t>you went home unlike Jeffs cat… you should of helped</t>
+  </si>
+  <si>
+    <t>you went home unlike Jeffs cat… you could of printed more flyers you know</t>
+  </si>
+  <si>
+    <t>you went home rich and Jeff found his cat</t>
+  </si>
+  <si>
+    <t>you got home safe and Jeff found his cat with your help</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>flyers bought</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Rockville</t>
+  </si>
+  <si>
+    <t>nla</t>
+  </si>
+  <si>
+    <t>money you have with you</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>a free ride home</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Rubies</t>
+  </si>
+  <si>
+    <t>you went home rish and Jeff found his cat</t>
   </si>
 </sst>
 </file>
@@ -412,17 +496,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -434,27 +518,241 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
